--- a/testcases/template/媒体发布_方案.xlsx
+++ b/testcases/template/媒体发布_方案.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050" activeTab="6"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -1728,10 +1728,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1787,8 +1787,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1803,10 +1833,40 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1817,22 +1877,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1846,62 +1916,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1915,29 +1931,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1970,7 +1970,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1982,55 +2000,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2048,7 +2024,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2060,49 +2108,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2114,43 +2138,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2218,46 +2206,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2279,11 +2228,50 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2317,10 +2305,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2329,133 +2317,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11309,8 +11297,8 @@
   <sheetPr/>
   <dimension ref="A1:G197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35:E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -11882,7 +11870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5">
       <c r="A35" s="7" t="s">
         <v>243</v>
       </c>
@@ -11895,8 +11883,11 @@
       <c r="D35" s="8" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="7" t="s">
         <v>246</v>
       </c>
@@ -11909,8 +11900,11 @@
       <c r="D36" s="8" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="7" t="s">
         <v>249</v>
       </c>
@@ -11923,8 +11917,11 @@
       <c r="D37" s="8" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="7" t="s">
         <v>252</v>
       </c>
@@ -11937,8 +11934,11 @@
       <c r="D38" s="8" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="7" t="s">
         <v>255</v>
       </c>
@@ -11951,8 +11951,11 @@
       <c r="D39" s="8" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="7" t="s">
         <v>258</v>
       </c>
@@ -11965,8 +11968,11 @@
       <c r="D40" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="7" t="s">
         <v>261</v>
       </c>
@@ -11979,8 +11985,11 @@
       <c r="D41" s="8" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="7" t="s">
         <v>264</v>
       </c>
@@ -11993,8 +12002,11 @@
       <c r="D42" s="8" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="7" t="s">
         <v>267</v>
       </c>
@@ -12007,8 +12019,11 @@
       <c r="D43" s="8" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="7" t="s">
         <v>270</v>
       </c>
@@ -12021,8 +12036,11 @@
       <c r="D44" s="8" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="7" t="s">
         <v>273</v>
       </c>
@@ -12035,8 +12053,11 @@
       <c r="D45" s="8" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="7" t="s">
         <v>276</v>
       </c>
@@ -12049,8 +12070,11 @@
       <c r="D46" s="8" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="7" t="s">
         <v>279</v>
       </c>
@@ -12063,8 +12087,11 @@
       <c r="D47" s="8" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="7" t="s">
         <v>282</v>
       </c>
@@ -12077,8 +12104,11 @@
       <c r="D48" s="8" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="7" t="s">
         <v>285</v>
       </c>
@@ -12091,8 +12121,11 @@
       <c r="D49" s="8" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="7" t="s">
         <v>288</v>
       </c>
@@ -12105,8 +12138,11 @@
       <c r="D50" s="8" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="7" t="s">
         <v>291</v>
       </c>
@@ -12119,8 +12155,11 @@
       <c r="D51" s="8" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="7" t="s">
         <v>294</v>
       </c>
@@ -12133,8 +12172,11 @@
       <c r="D52" s="8" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="7" t="s">
         <v>297</v>
       </c>
@@ -12147,8 +12189,11 @@
       <c r="D53" s="8" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="7" t="s">
         <v>300</v>
       </c>
@@ -12161,8 +12206,11 @@
       <c r="D54" s="8" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="7" t="s">
         <v>303</v>
       </c>
@@ -12175,8 +12223,11 @@
       <c r="D55" s="8" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="7" t="s">
         <v>306</v>
       </c>
@@ -12189,8 +12240,11 @@
       <c r="D56" s="8" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="7" t="s">
         <v>309</v>
       </c>
@@ -12203,8 +12257,11 @@
       <c r="D57" s="8" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="7" t="s">
         <v>312</v>
       </c>
@@ -12217,8 +12274,11 @@
       <c r="D58" s="8" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="7" t="s">
         <v>315</v>
       </c>
@@ -12231,8 +12291,11 @@
       <c r="D59" s="8" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="7" t="s">
         <v>318</v>
       </c>
@@ -12245,8 +12308,11 @@
       <c r="D60" s="8" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="7" t="s">
         <v>321</v>
       </c>
@@ -12259,8 +12325,11 @@
       <c r="D61" s="8" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="7" t="s">
         <v>324</v>
       </c>
@@ -12273,8 +12342,11 @@
       <c r="D62" s="8" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="7" t="s">
         <v>327</v>
       </c>
@@ -12287,8 +12359,11 @@
       <c r="D63" s="8" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="7" t="s">
         <v>330</v>
       </c>
@@ -12301,8 +12376,11 @@
       <c r="D64" s="8" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="7" t="s">
         <v>333</v>
       </c>
@@ -12315,8 +12393,11 @@
       <c r="D65" s="8" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="7" t="s">
         <v>336</v>
       </c>
@@ -12329,8 +12410,11 @@
       <c r="D66" s="8" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="7" t="s">
         <v>339</v>
       </c>
@@ -12343,8 +12427,11 @@
       <c r="D67" s="8" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="7" t="s">
         <v>342</v>
       </c>
@@ -12357,8 +12444,11 @@
       <c r="D68" s="8" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="7" t="s">
         <v>345</v>
       </c>
@@ -12371,8 +12461,11 @@
       <c r="D69" s="8" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="7" t="s">
         <v>347</v>
       </c>
@@ -12384,6 +12477,9 @@
       </c>
       <c r="D70" s="8" t="s">
         <v>349</v>
+      </c>
+      <c r="E70" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="1" ht="6.75" customHeight="1"/>
@@ -14237,7 +14333,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E27 E28 E29 E30 E31 E32 E33 E34 E92 E93 E94 E95 E96 E97 E98 E99 E100 E6:E24 E25:E26 E35:E91 E101:E197">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E27 E28 E29 E30 E31 E32 E33 E34 E92 E93 E94 E95 E96 E97 E98 E99 E100 E6:E24 E25:E26 E35:E70 E71:E91 E101:E197">
       <formula1>首页!$F$2:$F$4</formula1>
     </dataValidation>
   </dataValidations>
